--- a/data/trans_dic/P1_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P1_R-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.08704629479365335</v>
+        <v>0.0873673236321019</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.07153129045487951</v>
+        <v>0.06888753694466287</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1072597982683095</v>
+        <v>0.1056120189568467</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.207153321980529</v>
+        <v>0.2110755148982663</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1100947051668117</v>
+        <v>0.1112976145163501</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.07387452524618954</v>
+        <v>0.0729018611447059</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1177438941067578</v>
+        <v>0.1157678599571205</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.199262365872675</v>
+        <v>0.1938862655117913</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1058204048654708</v>
+        <v>0.1059534385878264</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.07633784286066682</v>
+        <v>0.0770931149058212</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1177470608393491</v>
+        <v>0.1177999114026837</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.211991330487605</v>
+        <v>0.2113001998276743</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1418830643883134</v>
+        <v>0.1416318944517166</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1068039123732052</v>
+        <v>0.1040002457466778</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1482366458817798</v>
+        <v>0.1461032343867847</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2952032654570518</v>
+        <v>0.2960738025678417</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1550520117397439</v>
+        <v>0.1569291806784802</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1097095906876862</v>
+        <v>0.1093489300196929</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1587109886279484</v>
+        <v>0.1568200990399779</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2509451670079681</v>
+        <v>0.2507062321972018</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1421069995083369</v>
+        <v>0.1431418249247125</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1007909429116585</v>
+        <v>0.101805223999962</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1455977300938091</v>
+        <v>0.1467649220263197</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2587377302977486</v>
+        <v>0.2605543968133024</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04783159160384159</v>
+        <v>0.0482439665122153</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04621200917662709</v>
+        <v>0.04905014047027526</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1064960596380918</v>
+        <v>0.1061178205978126</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1461671323994355</v>
+        <v>0.144705653707551</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.07119505531277008</v>
+        <v>0.07153024117732264</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.08482042544534646</v>
+        <v>0.08373076948657093</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1057751099515867</v>
+        <v>0.1052285513836669</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1595805146004786</v>
+        <v>0.1596238269072622</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0626126022740779</v>
+        <v>0.06288366159485814</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.07083894630403692</v>
+        <v>0.07153744068798534</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1102608633701985</v>
+        <v>0.1105704662294496</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1591804113080234</v>
+        <v>0.160224777386762</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07596778855080129</v>
+        <v>0.07708684900335151</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08029132746015526</v>
+        <v>0.08333159170927625</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1511342676865675</v>
+        <v>0.1494554735027551</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1971844705364202</v>
+        <v>0.19745996425131</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1070962336127941</v>
+        <v>0.1062580499818346</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1196595478476254</v>
+        <v>0.1207844502827318</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.149034491537043</v>
+        <v>0.1478311903701486</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.196734893514187</v>
+        <v>0.1968578448004689</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.08518005469050353</v>
+        <v>0.08634678293012675</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.09644824035074942</v>
+        <v>0.09649964503045293</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1410716420707915</v>
+        <v>0.1432847813432678</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1890732958009144</v>
+        <v>0.189620910858178</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.1197492150493572</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.1490265559458238</v>
+        <v>0.1490265559458239</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.05960862037081743</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04857863590631984</v>
+        <v>0.04847810615589922</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06588265139571406</v>
+        <v>0.06729409725529455</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.09084562634863878</v>
+        <v>0.09171463214144836</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1460656979865371</v>
+        <v>0.1470887575099012</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04370837191572254</v>
+        <v>0.04343775200972192</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.08196716428797531</v>
+        <v>0.08213252578172256</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.09616815184858081</v>
+        <v>0.0948155999151061</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1320531467239679</v>
+        <v>0.1304741289653382</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04970835236759524</v>
+        <v>0.04905232404944905</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.08101052329950613</v>
+        <v>0.0798442988665467</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.09960407088941496</v>
+        <v>0.1004256925343742</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1441712782496303</v>
+        <v>0.1452439455630302</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.08037426674114488</v>
+        <v>0.07951498467592667</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1066214093892877</v>
+        <v>0.1075448433935641</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1363154541615089</v>
+        <v>0.136730573504394</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1933437537881937</v>
+        <v>0.1937249700463914</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07370935598192535</v>
+        <v>0.07333410737781565</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1250280602830096</v>
+        <v>0.1254966408384329</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1475478768859256</v>
+        <v>0.1460281999033479</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1658728566717602</v>
+        <v>0.166225490748551</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.07137712329869467</v>
+        <v>0.07029210477448078</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1081289477050632</v>
+        <v>0.1084511912378172</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1320549688592577</v>
+        <v>0.1338408467551137</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1745216275664124</v>
+        <v>0.1736153817851658</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05432261429974355</v>
+        <v>0.05255575643525667</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08725368127063392</v>
+        <v>0.08502985320273553</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1129324187981023</v>
+        <v>0.115238278000167</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1628313979851538</v>
+        <v>0.162381322333138</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03996607969581888</v>
+        <v>0.03891655533254899</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.08333393874707469</v>
+        <v>0.08564344942132859</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1235338262820621</v>
+        <v>0.1203476014706018</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1466252461050683</v>
+        <v>0.1463621801065424</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05426676792513911</v>
+        <v>0.05254724915701518</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.09128138146776449</v>
+        <v>0.09214861818252948</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1277353626510002</v>
+        <v>0.127047299255221</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1595129814431564</v>
+        <v>0.1612436496463121</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1053627502625814</v>
+        <v>0.106377120973822</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.146438689874653</v>
+        <v>0.1457128248110044</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1764780471508642</v>
+        <v>0.1798980492422092</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2139960362991211</v>
+        <v>0.2169675183302026</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.09470677521416719</v>
+        <v>0.09394482680915928</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1474603012806196</v>
+        <v>0.1497332881387754</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1958984464579648</v>
+        <v>0.1923377787466013</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.186558746937729</v>
+        <v>0.1869182419237548</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.09206214522391494</v>
+        <v>0.09011851863387853</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1372202046139485</v>
+        <v>0.1353064920790184</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1747175480369391</v>
+        <v>0.1739364559057629</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1953159703990111</v>
+        <v>0.1935943845106537</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.06371383332942551</v>
+        <v>0.06389209162760105</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.07468287490933385</v>
+        <v>0.07373635070812402</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1145183425131685</v>
+        <v>0.1140453711168646</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1721768646662704</v>
+        <v>0.1723671519653975</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.07926173822086868</v>
+        <v>0.07867706239097813</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.08985697175602848</v>
+        <v>0.08904568057564848</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1194905269088362</v>
+        <v>0.1197762006089383</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1641863489911624</v>
+        <v>0.1650988133754556</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.07426587675194465</v>
+        <v>0.07450218102692589</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.08475041363671396</v>
+        <v>0.08458989898819384</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1194396058136985</v>
+        <v>0.1212401364018027</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1713469795965707</v>
+        <v>0.1707155615864515</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08323264114958472</v>
+        <v>0.08320545454166178</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.09310486220497696</v>
+        <v>0.0926842241528531</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.137986767738607</v>
+        <v>0.1383716347646592</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1994504226964752</v>
+        <v>0.1993326839561867</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.09764387286029727</v>
+        <v>0.09948542922523362</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1111111728188155</v>
+        <v>0.1097151081904445</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1445870957393085</v>
+        <v>0.1439196391561542</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1842803209658214</v>
+        <v>0.1852448950897396</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.08754488521647967</v>
+        <v>0.08781697612435979</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.09878561098366714</v>
+        <v>0.09896081520240778</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1367617676548477</v>
+        <v>0.1380018775956103</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1880135238147318</v>
+        <v>0.188808529285447</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>50847</v>
+        <v>51035</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>74674</v>
+        <v>71914</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>120989</v>
+        <v>119130</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>103315</v>
+        <v>105272</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>101544</v>
+        <v>102653</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>82734</v>
+        <v>81645</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>148306</v>
+        <v>145817</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>124256</v>
+        <v>120904</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>159416</v>
+        <v>159616</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>165185</v>
+        <v>166819</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>281128</v>
+        <v>281254</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>237922</v>
+        <v>237146</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>82880</v>
+        <v>82733</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>111496</v>
+        <v>108569</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>167210</v>
+        <v>164804</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>147229</v>
+        <v>147664</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>143010</v>
+        <v>144741</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>122867</v>
+        <v>122463</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>199906</v>
+        <v>197524</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>156484</v>
+        <v>156335</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>214080</v>
+        <v>215639</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>218098</v>
+        <v>220293</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>347623</v>
+        <v>350410</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>290387</v>
+        <v>292425</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>51557</v>
+        <v>52002</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>45153</v>
+        <v>47926</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>96786</v>
+        <v>96443</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>140340</v>
+        <v>138937</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>75291</v>
+        <v>75646</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>92816</v>
+        <v>91623</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>106460</v>
+        <v>105910</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>178068</v>
+        <v>178116</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>133705</v>
+        <v>134284</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>146731</v>
+        <v>148178</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>211183</v>
+        <v>211776</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>330456</v>
+        <v>332624</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>81885</v>
+        <v>83091</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>78450</v>
+        <v>81421</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>137355</v>
+        <v>135829</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>189324</v>
+        <v>189589</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>113258</v>
+        <v>112372</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>130939</v>
+        <v>132170</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>149999</v>
+        <v>148788</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>219526</v>
+        <v>219664</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>181896</v>
+        <v>184388</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>199777</v>
+        <v>199883</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>270195</v>
+        <v>274433</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>392514</v>
+        <v>393650</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>54486</v>
+        <v>54373</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>58314</v>
+        <v>59563</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>74835</v>
+        <v>75551</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>152855</v>
+        <v>153925</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>43443</v>
+        <v>43175</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>71787</v>
+        <v>71931</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>74151</v>
+        <v>73108</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>138344</v>
+        <v>136690</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>105160</v>
+        <v>103772</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>142652</v>
+        <v>140599</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>158850</v>
+        <v>160161</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>301912</v>
+        <v>304158</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>90147</v>
+        <v>89184</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>94372</v>
+        <v>95190</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>112291</v>
+        <v>112633</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>202330</v>
+        <v>202729</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>73263</v>
+        <v>72890</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>109499</v>
+        <v>109909</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>113768</v>
+        <v>112596</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>173775</v>
+        <v>174145</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>151001</v>
+        <v>148705</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>190405</v>
+        <v>190973</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>210604</v>
+        <v>213452</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>365469</v>
+        <v>363572</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>24293</v>
+        <v>23503</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>43891</v>
+        <v>42772</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>57223</v>
+        <v>58391</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>158912</v>
+        <v>158473</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>13635</v>
+        <v>13277</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>37728</v>
+        <v>38774</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>60494</v>
+        <v>58934</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>133480</v>
+        <v>133240</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>42782</v>
+        <v>41426</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>87243</v>
+        <v>88072</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>127275</v>
+        <v>126590</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>300885</v>
+        <v>304150</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>47118</v>
+        <v>47572</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>73662</v>
+        <v>73297</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>89422</v>
+        <v>91155</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>208845</v>
+        <v>211745</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>32310</v>
+        <v>32050</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>66761</v>
+        <v>67790</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>95931</v>
+        <v>94187</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>169833</v>
+        <v>170160</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>72578</v>
+        <v>71046</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>131149</v>
+        <v>129320</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>174088</v>
+        <v>173310</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>368419</v>
+        <v>365172</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>205849</v>
+        <v>206424</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>254605</v>
+        <v>251378</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>385616</v>
+        <v>384023</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>599397</v>
+        <v>600059</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>262750</v>
+        <v>260812</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>318338</v>
+        <v>315464</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>421418</v>
+        <v>422426</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>607065</v>
+        <v>610439</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>486129</v>
+        <v>487676</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>589174</v>
+        <v>588058</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>823426</v>
+        <v>835839</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1230049</v>
+        <v>1225516</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>268910</v>
+        <v>268823</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>317408</v>
+        <v>315974</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>464640</v>
+        <v>465936</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>694344</v>
+        <v>693934</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>323686</v>
+        <v>329791</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>393636</v>
+        <v>388690</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>509929</v>
+        <v>507575</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>681361</v>
+        <v>684927</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>573051</v>
+        <v>574832</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>686744</v>
+        <v>687962</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>942846</v>
+        <v>951395</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1349693</v>
+        <v>1355400</v>
       </c>
     </row>
     <row r="24">
